--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>671089.6663024541</v>
+        <v>711410.3637095533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889762</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8240289.624085056</v>
+        <v>8222662.983689154</v>
       </c>
     </row>
     <row r="11">
@@ -668,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>117.8810701004032</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>178.0143880554421</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1029,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>231.8635835046279</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>119.4332603207451</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>192.8057892504132</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>51.96190712986733</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.3138620892173</v>
       </c>
       <c r="C11" t="n">
-        <v>142.929990410344</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,10 +1548,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>100.8330673628374</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1695,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>61.28737103419864</v>
+        <v>73.52907136089584</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162.3364906735232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.1944522398488</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>184.5808806410313</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>339.0399185806816</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2208,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>27.26618645491687</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>76.48464164091943</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>308.1699826279566</v>
+        <v>76.80462337977889</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H26" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>141.3865903334045</v>
       </c>
       <c r="H28" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>70.48229356082271</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>189.596843649344</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>57.66595549467311</v>
       </c>
       <c r="D32" t="n">
-        <v>202.5481064117822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>71.08259300547789</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>101.3341794774135</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.02457248166897</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>107.1778636154931</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>13.8906866253773</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>291.2462174414571</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>26.64360395382627</v>
+        <v>40.63402247324701</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>8.787420751036331</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>269.027508828177</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,22 +4027,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>29.8457583064832</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.7756050755992</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.2293816994886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C2" t="n">
-        <v>962.2293816994886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D2" t="n">
-        <v>962.2293816994886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E2" t="n">
-        <v>962.2293816994886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X2" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.2293816994886</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428.1192463369997</v>
+        <v>616.0293053032528</v>
       </c>
       <c r="C3" t="n">
-        <v>428.1192463369997</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>671.5680229810998</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>671.5680229810998</v>
+        <v>784.2446423233209</v>
       </c>
       <c r="V3" t="n">
-        <v>671.5680229810998</v>
+        <v>784.2446423233209</v>
       </c>
       <c r="W3" t="n">
-        <v>428.1192463369997</v>
+        <v>784.2446423233209</v>
       </c>
       <c r="X3" t="n">
-        <v>428.1192463369997</v>
+        <v>784.2446423233209</v>
       </c>
       <c r="Y3" t="n">
-        <v>428.1192463369997</v>
+        <v>784.2446423233209</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C6" t="n">
         <v>20.03527576299844</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.0670914110435</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>521.1660470154206</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9604071117561</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>286.9604071117561</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806666</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.968135806666</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.6990196057748</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>398.8245784347747</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>398.8245784347747</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480426</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>954.9030226480426</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>752.9179650631185</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>752.9179650631185</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>517.7658568313757</v>
+        <v>769.3038330354714</v>
       </c>
       <c r="W9" t="n">
-        <v>517.7658568313757</v>
+        <v>525.8550563913712</v>
       </c>
       <c r="X9" t="n">
-        <v>309.9143566258429</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y9" t="n">
-        <v>309.9143566258429</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>130.0221525919996</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>38.68360465423046</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2251.981069572904</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
@@ -5039,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5066,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548716</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y11" t="n">
-        <v>2251.981069572904</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="12">
@@ -5118,43 +5120,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1036.358670716696</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C14" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D14" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5281,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5306,22 +5308,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2364.0913306681</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2110.329545306192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1779.266657962621</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1426.498002692507</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>1426.498002692507</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y14" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="15">
@@ -5343,10 +5345,10 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.945354755378</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5519,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.242655630143</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="V17" t="n">
-        <v>2304.179768286572</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="W17" t="n">
-        <v>1951.411113016458</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="X17" t="n">
-        <v>1577.945354755378</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.945354755378</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5710,13 +5712,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.9192350259435</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.945354755378</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
         <v>53.94298182036445</v>
@@ -5780,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W20" t="n">
-        <v>2354.684526795312</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X20" t="n">
-        <v>2354.684526795312</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y20" t="n">
-        <v>1964.5451948195</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5829,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5856,16 +5858,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>2471.7452186737</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>2471.7452186737</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>2471.7452186737</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>2471.7452186737</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>2471.7452186737</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X22" t="n">
-        <v>2243.755667775683</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C23" t="n">
-        <v>1194.175505447095</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.175505447095</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E23" t="n">
-        <v>1194.175505447095</v>
+        <v>960.4731223681274</v>
       </c>
       <c r="F23" t="n">
-        <v>783.1896006574873</v>
+        <v>549.4872175785199</v>
       </c>
       <c r="G23" t="n">
-        <v>365.2257925556742</v>
+        <v>131.5234094767068</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5990,16 +5992,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6078,31 +6080,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6175,16 +6177,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
         <v>53.94298182036445</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2310.5492509541</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C26" t="n">
-        <v>1941.586734013689</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1583.321035406938</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>1197.532782808694</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F26" t="n">
-        <v>786.5468780190865</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G26" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6230,46 +6232,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>2697.149091018222</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6302,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.2708856551153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C28" t="n">
-        <v>184.2708856551153</v>
+        <v>196.757719530874</v>
       </c>
       <c r="D28" t="n">
-        <v>184.2708856551153</v>
+        <v>196.757719530874</v>
       </c>
       <c r="E28" t="n">
-        <v>184.2708856551153</v>
+        <v>196.757719530874</v>
       </c>
       <c r="F28" t="n">
-        <v>184.2708856551153</v>
+        <v>196.757719530874</v>
       </c>
       <c r="G28" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V28" t="n">
-        <v>184.2708856551153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W28" t="n">
-        <v>184.2708856551153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X28" t="n">
-        <v>184.2708856551153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.2708856551153</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2570.926165628693</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W31" t="n">
-        <v>2250.95263953017</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1365.680170394969</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C32" t="n">
-        <v>996.7176534545572</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D32" t="n">
-        <v>792.1236065739691</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1236065739691</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990285</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>2125.74576872017</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X32" t="n">
-        <v>1752.280010459091</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y32" t="n">
-        <v>1752.280010459091</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6865,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>593.7883833041373</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V34" t="n">
-        <v>593.7883833041373</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W34" t="n">
-        <v>593.7883833041373</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>593.7883833041373</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>833.8914035503838</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="C35" t="n">
-        <v>464.928886609972</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D35" t="n">
-        <v>464.928886609972</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
@@ -6941,7 +6943,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6953,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>2625.34849202279</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2294.285604679219</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1941.516949409105</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982761</v>
+        <v>1568.051191148025</v>
       </c>
       <c r="Y35" t="n">
-        <v>833.8914035503838</v>
+        <v>1177.911859172214</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2191.89927156006</v>
+        <v>2360.899071821727</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G37" t="n">
         <v>2022.963088632153</v>
@@ -7099,46 +7101,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>2673.891947097345</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>2673.891947097345</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.583759765947</v>
+        <v>2588.888622719744</v>
       </c>
       <c r="U37" t="n">
-        <v>2446.583759765947</v>
+        <v>2588.888622719744</v>
       </c>
       <c r="V37" t="n">
-        <v>2191.89927156006</v>
+        <v>2588.888622719744</v>
       </c>
       <c r="W37" t="n">
-        <v>2191.89927156006</v>
+        <v>2588.888622719744</v>
       </c>
       <c r="X37" t="n">
-        <v>2191.89927156006</v>
+        <v>2360.899071821727</v>
       </c>
       <c r="Y37" t="n">
-        <v>2191.89927156006</v>
+        <v>2360.899071821727</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.8693068625894</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>471.9067899221776</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>471.9067899221776</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2683.118094426933</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2506.940606741103</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2288.305939713166</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2288.305939713166</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V38" t="n">
-        <v>1957.243052369595</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W38" t="n">
-        <v>1604.474397099481</v>
+        <v>1930.564540202662</v>
       </c>
       <c r="X38" t="n">
-        <v>1231.008638838401</v>
+        <v>1557.098781941583</v>
       </c>
       <c r="Y38" t="n">
-        <v>840.8693068625894</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7296,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036446</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>808.0839286340179</v>
+        <v>1404.597857825387</v>
       </c>
       <c r="C41" t="n">
-        <v>439.1214116936061</v>
+        <v>1404.597857825387</v>
       </c>
       <c r="D41" t="n">
-        <v>80.85571308685564</v>
+        <v>1404.597857825387</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533144</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.288858935031</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X41" t="n">
-        <v>1584.823100673951</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y41" t="n">
-        <v>1194.68376869814</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7487,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
         <v>670.8219208598713</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>290.8087152951862</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V43" t="n">
-        <v>290.8087152951862</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W43" t="n">
-        <v>290.8087152951862</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81916439716883</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.81916439716883</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>833.8914035503838</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>464.928886609972</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1640.777806202927</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1610.630575590317</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1220.491243614505</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>513.840561024597</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>224.4233909876364</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X46" t="n">
-        <v>224.4233909876364</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.4233909876364</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577181</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>322.2342477951059</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,10 +11141,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11306,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>82.2836585944184</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>47.92699402553271</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>134.3983961749248</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
@@ -22802,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>57.12999154646258</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22917,10 +22919,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -22929,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.491807711814</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>122.8194581160551</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>53.27523866757068</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>39.99479789901207</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>102.2405633723434</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>47.41997957426332</v>
       </c>
       <c r="C11" t="n">
-        <v>222.3429013606636</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>115.6152529948204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458451</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,19 +23788,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>189.9367964740907</v>
+        <v>177.6950961473935</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.49548950841407</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>3.11535001920214</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24020,19 +24022,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>31.86743971662654</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>10.20105013673145</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>121.3492865632955</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>135.6608973090995</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>15.75279013640056</v>
+        <v>247.1181493845783</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,19 +24262,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24415,19 +24417,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H26" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>25.92321192564643</v>
       </c>
       <c r="H28" t="n">
-        <v>27.14626404539183</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24646,19 +24648,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>145.9660267968351</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24889,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>96.92615468724702</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>307.6069362763345</v>
       </c>
       <c r="D32" t="n">
-        <v>152.1349352089008</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>13.66799708688387</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>180.1415745028114</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>284.9037591786401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25357,25 +25359,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>123.6406194984889</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>117.8572418425911</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.58771594943441</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>57.99475127595588</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>355.2867661184355</v>
+        <v>341.2963475990148</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25685,7 +25687,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>137.6465418955328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>339.8853423719858</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.05637510633807</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,7 +26073,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26080,13 +26082,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484493.4921751526</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26329,10 +26331,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="I2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="I2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26341,19 +26343,19 @@
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="M2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="M2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133941</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525615</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26423,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138016</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496504</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="F4" t="n">
         <v>27086.83710496504</v>
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26491,25 +26493,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="M5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13096.39685629616</v>
+        <v>-13096.39685629615</v>
       </c>
       <c r="C6" t="n">
+        <v>67673.03467525155</v>
+      </c>
+      <c r="D6" t="n">
         <v>67673.03467525161</v>
       </c>
-      <c r="D6" t="n">
-        <v>45252.42222637147</v>
-      </c>
       <c r="E6" t="n">
-        <v>-238259.0343385549</v>
+        <v>-263384.7706979767</v>
       </c>
       <c r="F6" t="n">
         <v>169461.4033450194</v>
@@ -26537,10 +26539,10 @@
         <v>169461.4033450194</v>
       </c>
       <c r="H6" t="n">
+        <v>169461.4033450194</v>
+      </c>
+      <c r="I6" t="n">
         <v>169461.4033450193</v>
-      </c>
-      <c r="I6" t="n">
-        <v>169461.4033450194</v>
       </c>
       <c r="J6" t="n">
         <v>106401.4607459131</v>
@@ -26549,19 +26551,19 @@
         <v>169461.4033450194</v>
       </c>
       <c r="L6" t="n">
-        <v>163835.7611164937</v>
+        <v>169461.4033450194</v>
       </c>
       <c r="M6" t="n">
-        <v>67027.28565438418</v>
+        <v>61488.04267096125</v>
       </c>
       <c r="N6" t="n">
         <v>169461.4033450194</v>
       </c>
       <c r="O6" t="n">
-        <v>169461.4033450193</v>
+        <v>169461.4033450194</v>
       </c>
       <c r="P6" t="n">
-        <v>169461.4033450194</v>
+        <v>169461.4033450196</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26802,7 +26804,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26811,25 +26813,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400743</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028892</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>203.7667864659606</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,13 +35661,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37397,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37561,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -38026,7 +38028,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711410.3637095533</v>
+        <v>643103.9392868346</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554238</v>
+        <v>335414.3901624708</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8222662.983689154</v>
+        <v>8243252.136356125</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>178.0143880554421</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>19.86309467803574</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>115.5785074418532</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>106.9261903110162</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>89.09127884689478</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>46.85525708020591</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>192.8057892504132</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>159.8350691069755</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.3138620892173</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1429,7 +1429,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>102.8549172159994</v>
       </c>
     </row>
     <row r="12">
@@ -1502,7 +1502,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U12" t="n">
         <v>225.8879277888686</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>86.88462298447445</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>1.62482853985925</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>73.52907136089584</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.1944522398488</v>
+        <v>132.997194893274</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>184.5808806410313</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.26618645491687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>26.26583888007722</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>109.1826121627716</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>76.80462337977889</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>6.390346842435148</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>39.00418184991943</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>141.3865903334045</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.390346842435148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>327.1485339723819</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>70.48229356082271</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>57.66595549467311</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>236.0502377560825</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>129.0246247964034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>344.0128979361965</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>71.08259300547789</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>107.1778636154931</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>291.2462174414571</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>40.63402247324701</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>47.40419526769224</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>269.027508828177</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>10.43941339835948</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>269.5134569480837</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>199.3355115125538</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>107.8524135464461</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>616.0293053032528</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C3" t="n">
-        <v>441.5762760221259</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D3" t="n">
-        <v>292.6418663608746</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E3" t="n">
-        <v>133.4044113554191</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>42.69398733164745</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>784.2446423233209</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>784.2446423233209</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>784.2446423233209</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>784.2446423233209</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y3" t="n">
-        <v>784.2446423233209</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C5" t="n">
-        <v>487.4018176583718</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D5" t="n">
-        <v>243.9530410142718</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>949.7066103977525</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>738.9151819062088</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136.7812428759814</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>602.8274275453307</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>374.6043344193546</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>374.6043344193546</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>127.5712714283017</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.9965798960495</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>590.089236494704</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>500.0980457402648</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>500.0980457402648</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>500.0980457402648</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>500.0980457402648</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>234.1970013446414</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>234.1970013446414</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098032</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>843.9662583320093</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>843.9662583320093</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>590.089236494704</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>590.089236494704</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>590.089236494704</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>590.089236494704</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>590.089236494704</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>318.0035561858384</v>
+        <v>355.7271706411916</v>
       </c>
       <c r="C9" t="n">
-        <v>318.0035561858384</v>
+        <v>181.2741413600646</v>
       </c>
       <c r="D9" t="n">
-        <v>318.0035561858384</v>
+        <v>181.2741413600646</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>181.2741413600646</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>181.2741413600646</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>30.73231659501269</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>271.3358444898754</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>531.9454581020259</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>792.5550717141764</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="V9" t="n">
-        <v>769.3038330354714</v>
+        <v>817.816027574926</v>
       </c>
       <c r="W9" t="n">
-        <v>525.8550563913712</v>
+        <v>563.5786708467244</v>
       </c>
       <c r="X9" t="n">
-        <v>318.0035561858384</v>
+        <v>355.7271706411916</v>
       </c>
       <c r="Y9" t="n">
-        <v>318.0035561858384</v>
+        <v>355.7271706411916</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>182.5089274706541</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207.4089578252748</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C11" t="n">
-        <v>207.4089578252748</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D11" t="n">
-        <v>207.4089578252748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
         <v>207.4089578252748</v>
@@ -5044,10 +5044,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5150,13 +5150,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583422</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036445</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982757</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.109828622464</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5442,37 +5442,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931987</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
         <v>53.94298182036445</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1791.109440255352</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2567.848612295285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2567.848612295285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2567.848612295285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2567.848612295285</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2177.709280319473</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
         <v>713.8062203571349</v>
@@ -5615,28 +5615,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>546.4805193761945</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C19" t="n">
-        <v>377.5443364482876</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D19" t="n">
-        <v>377.5443364482876</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="E19" t="n">
-        <v>377.5443364482876</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="F19" t="n">
-        <v>377.5443364482876</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5718,7 +5718,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.9054987607761</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>53.94298182036445</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5758,7 +5758,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2510.703757037383</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2256.941971675474</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>1925.879084331904</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1573.11042906179</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1199.64467080071</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>809.505338824898</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5852,22 +5852,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>398.3338608103785</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C22" t="n">
-        <v>229.3976778824716</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5978338225178</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1704.527073573122</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C23" t="n">
-        <v>1704.527073573122</v>
+        <v>993.1781615428677</v>
       </c>
       <c r="D23" t="n">
-        <v>1346.261374966372</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>960.4731223681274</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>549.4872175785199</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>131.5234094767068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>2057.295728843236</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.527073573122</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X23" t="n">
-        <v>1704.527073573122</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y23" t="n">
-        <v>1704.527073573122</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="V25" t="n">
-        <v>571.3497027553424</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9325327183818</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247703</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.952954307291</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>737.1647017090468</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1787969194392</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224079</v>
@@ -6244,10 +6244,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6259,19 +6259,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.6939024587809</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C28" t="n">
-        <v>196.757719530874</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D28" t="n">
-        <v>196.757719530874</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="E28" t="n">
-        <v>196.757719530874</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="F28" t="n">
-        <v>196.757719530874</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>60.397877620804</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
         <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U28" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V28" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W28" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X28" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.959449965771</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C29" t="n">
-        <v>797.9969330253592</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036446</v>
+        <v>384.396046438932</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2570.926165628693</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2317.164380266785</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2317.164380266785</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2317.164380266785</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X29" t="n">
-        <v>1943.698622005704</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y29" t="n">
-        <v>1553.559290029893</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1838.661061815299</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C32" t="n">
-        <v>1780.41262192169</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W32" t="n">
-        <v>1838.661061815299</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X32" t="n">
-        <v>1838.661061815299</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y32" t="n">
-        <v>1838.661061815299</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="33">
@@ -6891,10 +6891,10 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610023</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V34" t="n">
-        <v>184.2708856551154</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
         <v>53.94298182036446</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1177.911859172214</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.911859172214</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.911859172214</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1236065739693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U35" t="n">
-        <v>2625.34849202279</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V35" t="n">
-        <v>2294.285604679219</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W35" t="n">
-        <v>1941.516949409105</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X35" t="n">
-        <v>1568.051191148025</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y35" t="n">
-        <v>1177.911859172214</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="36">
@@ -6992,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2360.899071821727</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>2588.888622719744</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>2588.888622719744</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>2588.888622719744</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>2588.888622719744</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>2360.899071821727</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>2360.899071821727</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>1930.564540202662</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1557.098781941583</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1166.959449965771</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7250,10 +7250,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1404.597857825387</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C41" t="n">
-        <v>1404.597857825387</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D41" t="n">
-        <v>1404.597857825387</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="G41" t="n">
         <v>534.603677789272</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.202948062278</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>1794.737189801198</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y41" t="n">
-        <v>1404.597857825387</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7496,43 +7496,43 @@
         <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7599,19 +7599,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>456.3840257941342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>456.3840257941342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W43" t="n">
-        <v>456.3840257941342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X43" t="n">
-        <v>456.3840257941342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y43" t="n">
         <v>235.5914466506042</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005474</v>
+        <v>391.878965009939</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0273259635867</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.1450665890762</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>139.6188569073251</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>392.833774309385</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>381.7094952808122</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368071</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,13 +22682,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>47.92699402553271</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>134.3983961749248</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>94.7608136808341</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>129.0782713436461</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>57.12999154646258</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>98.84679489246132</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>276.1816129241128</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521642</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.81046392068936</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>90.43875959948974</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>39.99479789901207</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>2.023134740338151</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.41997957426332</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>283.3830214400542</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>381.1090131236213</v>
       </c>
       <c r="C14" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>17.8816912783675</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,7 +23788,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>177.6950961473935</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>3.11535001920214</v>
+        <v>34.31260736577687</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>31.86743971662654</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>121.3492865632955</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24174,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>198.7692665780071</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>245.5004294579114</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>247.1181493845783</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24411,25 +24411,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>218.6447586156491</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24499,16 +24499,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>330.7269188285496</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>25.92321192564643</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>149.78054199936</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>79.72751176932951</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24733,16 +24733,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>145.9660267968351</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>307.6069362763345</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>15.17392975220676</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>10.67014368448645</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>180.1415745028114</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25365,19 +25365,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>117.8572418425911</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>57.99475127595588</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541048</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>341.2963475990148</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>366.3799747531028</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25839,22 +25839,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>17.25436541380077</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>276.0835849382315</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>170.3955891659153</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>144.2852297773819</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465428.5179229465</v>
+        <v>468509.5306848604</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465428.5179229464</v>
+        <v>484493.4921751532</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476628</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972482</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26331,10 +26331,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
+        <v>245779.718513394</v>
+      </c>
+      <c r="I2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="I2" t="n">
-        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26346,7 +26346,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133941</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753593</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>407720.4376835739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847534</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.117690635</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25282.26821261927</v>
+        <v>25293.26066533936</v>
       </c>
       <c r="D4" t="n">
-        <v>25282.26821261927</v>
+        <v>25338.71079138017</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
         <v>27086.83710496504</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26493,25 +26493,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13096.39685629615</v>
+        <v>-25314.40747633658</v>
       </c>
       <c r="C6" t="n">
-        <v>67673.03467525155</v>
+        <v>51699.94129532461</v>
       </c>
       <c r="D6" t="n">
-        <v>67673.03467525161</v>
+        <v>37641.98612414155</v>
       </c>
       <c r="E6" t="n">
-        <v>-263384.7706979767</v>
+        <v>-244327.4480843738</v>
       </c>
       <c r="F6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="G6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="H6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992003</v>
       </c>
       <c r="I6" t="n">
-        <v>169461.4033450193</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="J6" t="n">
-        <v>106401.4607459131</v>
+        <v>100333.047000094</v>
       </c>
       <c r="K6" t="n">
-        <v>169461.4033450194</v>
+        <v>162479.7337967431</v>
       </c>
       <c r="L6" t="n">
-        <v>169461.4033450194</v>
+        <v>158665.4264803527</v>
       </c>
       <c r="M6" t="n">
-        <v>61488.04267096125</v>
+        <v>60958.8719085652</v>
       </c>
       <c r="N6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="O6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="P6" t="n">
-        <v>169461.4033450196</v>
+        <v>163392.9895992002</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26804,7 +26804,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26813,25 +26813,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354754</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>354.7302815302968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052489</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768964</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246607</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430047</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418822</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0.6796463695193301</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9.770660483716481</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060965</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37864,7 +37864,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643103.9392868346</v>
+        <v>703811.9251730635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624708</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8243252.136356125</v>
+        <v>8222662.983689153</v>
       </c>
     </row>
     <row r="11">
@@ -658,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22.43212445296252</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>19.86309467803574</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>100.730531267015</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>106.9261903110162</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>137.0815656650981</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>89.09127884689478</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>46.85525708020591</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>110.4285199878827</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8350691069755</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.8549172159994</v>
+        <v>74.32343379592741</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1502,7 +1502,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
         <v>225.8879277888686</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>86.88462298447445</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.62482853985925</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>30.51821258765348</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>128.7835007017903</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>122.3623168480191</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>160.0655515896126</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="G19" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480836</v>
+        <v>277.4151884985292</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2216,7 +2216,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>67.17737911999804</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>26.26583888007722</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>109.1826121627716</v>
+        <v>79.52239287650625</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>6.390346842435148</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>276.097472079656</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>39.00418184991943</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2684,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.390346842435148</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>358.7691492658816</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>327.1485339723819</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>8.389005322401392</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>107.5585403510313</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>236.0502377560825</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>15.5159980612134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>344.0128979361965</v>
+        <v>323.9918595228958</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.95369569505507</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>118.0982540035913</v>
       </c>
     </row>
     <row r="39">
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>94.63926978364043</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>47.40419526769224</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>302.7074269809883</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W43" t="n">
-        <v>10.43941339835948</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>221.8199080766634</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>199.3355115125538</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>174.8813118982896</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>107.8524135464461</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.0631229240681</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C3" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>42.69398733164745</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>156.0631229240681</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>156.0631229240681</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>156.0631229240681</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.6311445709973</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>513.6311445709973</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>513.6311445709973</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>266.5980815799443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>949.7066103977525</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>738.9151819062088</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>513.6311445709973</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>513.6311445709973</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>513.6311445709973</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>513.6311445709973</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>513.6311445709973</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>513.6311445709973</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.56501858889139</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.56501858889139</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>251.2267644261524</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>493.3438694636834</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>735.4609745012144</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>977.5780795387454</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>804.9818487541377</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>602.8274275453307</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>374.6043344193546</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>374.6043344193546</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>127.5712714283017</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X6" t="n">
-        <v>19.56501858889139</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56501858889139</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590.089236494704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
-        <v>500.0980457402648</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D8" t="n">
-        <v>500.0980457402648</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E8" t="n">
-        <v>500.0980457402648</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>500.0980457402648</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>234.1970013446414</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>234.1970013446414</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800408</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573685</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142367</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098032</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369341</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885156</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806669</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806669</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>843.9662583320093</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>843.9662583320093</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>590.089236494704</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>590.089236494704</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>590.089236494704</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>590.089236494704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y8" t="n">
-        <v>590.089236494704</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>355.7271706411916</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>181.2741413600646</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>181.2741413600646</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>181.2741413600646</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>181.2741413600646</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>133.9455988548061</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613337</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613337</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>30.73231659501269</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>271.3358444898754</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>531.9454581020259</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>792.5550717141764</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.968135806669</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806669</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806669</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806669</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806669</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>817.816027574926</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>563.5786708467244</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>355.7271706411916</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>355.7271706411916</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360313</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955242</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486502</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1394.624369323446</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C11" t="n">
         <v>1394.624369323446</v>
@@ -5038,16 +5038,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.752638628377</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1871.983983358263</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X11" t="n">
-        <v>1498.518225097183</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y11" t="n">
-        <v>1394.624369323446</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5132,22 +5132,22 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
         <v>2289.884200196743</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2090.781606227855</v>
+        <v>1271.984870679802</v>
       </c>
       <c r="C14" t="n">
-        <v>1721.819089287443</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5296,10 +5296,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5308,22 +5308,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>2092.422847177208</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W14" t="n">
-        <v>2092.422847177208</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X14" t="n">
-        <v>2092.422847177208</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y14" t="n">
-        <v>2092.422847177208</v>
+        <v>1271.984870679802</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5378,22 +5378,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R16" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785532</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889456</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
         <v>505.8730812692495</v>
@@ -5591,10 +5591,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
         <v>309.190302261463</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>507.3364050629041</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C19" t="n">
-        <v>338.4002221349972</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D19" t="n">
-        <v>188.2835827226615</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E19" t="n">
-        <v>188.2835827226615</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="F19" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y19" t="n">
-        <v>507.3364050629041</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090463</v>
+        <v>745.1462487296985</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194388</v>
+        <v>334.160343940091</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
@@ -5758,7 +5758,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>519.9493689922781</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="C22" t="n">
-        <v>519.9493689922781</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="D22" t="n">
-        <v>369.8327295799424</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>701.5978338225178</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>701.5978338225178</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V22" t="n">
-        <v>701.5978338225178</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W22" t="n">
-        <v>701.5978338225178</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X22" t="n">
-        <v>701.5978338225178</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y22" t="n">
-        <v>701.5978338225178</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1362.140678483279</v>
+        <v>1349.006596680238</v>
       </c>
       <c r="C23" t="n">
-        <v>993.1781615428677</v>
+        <v>1349.006596680238</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
         <v>882.8926947117852</v>
@@ -5980,16 +5980,16 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6001,40 +6001,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2478.514423990285</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V23" t="n">
-        <v>2478.514423990285</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W23" t="n">
         <v>2125.745768720171</v>
       </c>
       <c r="X23" t="n">
-        <v>1752.280010459091</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y23" t="n">
-        <v>1362.140678483279</v>
+        <v>1735.60643674436</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.878965009939</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C25" t="n">
-        <v>222.942782082032</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>573.5274298401787</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U25" t="n">
-        <v>573.5274298401787</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V25" t="n">
-        <v>573.5274298401787</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W25" t="n">
-        <v>573.5274298401787</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X25" t="n">
-        <v>573.5274298401787</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y25" t="n">
-        <v>573.5274298401787</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1241.158393318536</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="C26" t="n">
-        <v>1241.158393318536</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>2057.295728843236</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W26" t="n">
-        <v>2057.295728843236</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X26" t="n">
-        <v>2017.897565358469</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y26" t="n">
-        <v>1627.758233382657</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6332,16 +6332,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>398.3338608103785</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C28" t="n">
-        <v>229.3976778824716</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>229.3976778824716</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>229.3976778824716</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>229.3976778824716</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>60.397877620804</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U28" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V28" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W28" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X28" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y28" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1139.146815977588</v>
+        <v>1553.852279424831</v>
       </c>
       <c r="C29" t="n">
-        <v>770.1842990371763</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D29" t="n">
-        <v>770.1842990371763</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E29" t="n">
-        <v>384.396046438932</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W29" t="n">
-        <v>2289.351746278601</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X29" t="n">
-        <v>1915.885988017521</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y29" t="n">
-        <v>1525.74665604171</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="30">
@@ -6557,10 +6557,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>209.3066720681752</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>62.41672457026485</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1626.94664591678</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="C32" t="n">
-        <v>1626.94664591678</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>1061.212476144652</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U32" t="n">
-        <v>2403.685817956713</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V32" t="n">
-        <v>2403.685817956713</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.685817956713</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X32" t="n">
-        <v>2403.685817956713</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y32" t="n">
-        <v>2013.546485980902</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036446</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>712.4562588920774</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1383.846446409823</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>1383.846446409823</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D35" t="n">
-        <v>1036.358670716696</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6967,22 +6967,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2147.451536646715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2147.451536646715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>1773.985778385635</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1383.846446409823</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>117.5325734315312</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036446</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U37" t="n">
-        <v>598.044640063212</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931988</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1289.354447327928</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090468</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194392</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1289.354447327928</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7274,22 +7274,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.5382038240417</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C40" t="n">
-        <v>149.5382038240417</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D40" t="n">
-        <v>149.5382038240417</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5382038240417</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>149.5382038240417</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610023</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610023</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5382038240417</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X40" t="n">
-        <v>149.5382038240417</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5382038240417</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1309.714918859356</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C41" t="n">
-        <v>940.7524019189439</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D41" t="n">
-        <v>582.4867033121934</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
-        <v>582.4867033121934</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>582.4867033121934</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.714918859356</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y41" t="n">
-        <v>1309.714918859356</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>246.1363086691491</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1108.365917331524</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C44" t="n">
-        <v>739.4034003911122</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D44" t="n">
-        <v>381.1377017843616</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1377017843616</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1108.365917331524</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1108.365917331524</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.878965009939</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C46" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D46" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E46" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F46" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750361</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="U46" t="n">
-        <v>500.8207968750361</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="V46" t="n">
-        <v>391.878965009939</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="W46" t="n">
-        <v>391.878965009939</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="X46" t="n">
-        <v>391.878965009939</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.878965009939</v>
+        <v>551.4811944101821</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.1450665890762</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>139.6188569073251</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.833774309385</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808122</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368071</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868108</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22594,25 +22594,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22643,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>66.96450839845255</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,7 +22682,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7252358559294</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>94.7608136808341</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>129.0782713436461</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>65.80265238285239</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>7.132250799777211</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>98.84679489246132</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>149.4414326714929</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>276.1816129241128</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521642</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>90.43875959948974</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.6923398882896</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.0844620270375</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>2.023134740338151</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598912</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366963</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908972</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>283.3830214400542</v>
+        <v>311.9145048601262</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>59.54933966209472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053967</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1090131236213</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>334.7546791833541</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>17.8816912783675</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23712,16 +23712,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>164.1606814885719</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23791,16 +23791,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>209.6655490888564</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929082</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31260736577687</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23946,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727114</v>
+        <v>136.3689815222658</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>81.43809389821432</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>198.7692665780071</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>245.5004294579114</v>
+        <v>275.1606487441767</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>218.6447586156491</v>
+        <v>165.3712490426388</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>106.6363695838245</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>330.7269188285496</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>149.78054199936</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24648,13 +24648,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822158</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>23.96469239759898</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>79.72751176932951</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>158.9207969366495</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24894,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>299.3175053906801</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>15.17392975220676</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1936573278238</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>10.67014368448645</v>
+        <v>30.69118209778719</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>93.21719314674007</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25362,19 +25362,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25450,16 +25450,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>268.1396846524623</v>
       </c>
     </row>
     <row r="39">
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>72.67053247541048</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>16.75577602442652</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>366.3799747531028</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>83.53051167506527</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W43" t="n">
-        <v>276.0835849382315</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>191.9642619441316</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>170.3955891659153</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>37.26422705172931</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>144.2852297773819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>468509.5306848604</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484493.4921751532</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.1451476628</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972482</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26331,7 +26331,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753593</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835739</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847534</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.117690635</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25293.26066533936</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138017</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26472,25 +26472,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683338</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26505,13 +26505,13 @@
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25314.40747633658</v>
+        <v>-14318.19791830022</v>
       </c>
       <c r="C6" t="n">
-        <v>51699.94129532461</v>
+        <v>66451.23361324753</v>
       </c>
       <c r="D6" t="n">
-        <v>37641.98612414155</v>
+        <v>66451.23361324753</v>
       </c>
       <c r="E6" t="n">
-        <v>-244327.4480843738</v>
+        <v>-263991.6120725587</v>
       </c>
       <c r="F6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="G6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704374</v>
       </c>
       <c r="H6" t="n">
-        <v>163392.9895992003</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="I6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704374</v>
       </c>
       <c r="J6" t="n">
-        <v>100333.047000094</v>
+        <v>105794.6193713313</v>
       </c>
       <c r="K6" t="n">
-        <v>162479.7337967431</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="L6" t="n">
-        <v>158665.4264803527</v>
+        <v>168854.5619704374</v>
       </c>
       <c r="M6" t="n">
-        <v>60958.8719085652</v>
+        <v>60881.20129637932</v>
       </c>
       <c r="N6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="O6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="P6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26792,25 +26792,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26825,13 +26825,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354754</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302968</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028884</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052489</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028884</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028884</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367775</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887899</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56672738103504</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760526</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324521</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455514</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895192</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019349</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841755</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.303932450608</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214545037</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679652</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332559</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318495</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294218</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498196</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104837</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125476</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246607</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750399</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688238</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430047</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418822</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104047</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523179</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.31869329921068</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705524055</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467912</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564604</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994892</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259097</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047555</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281388</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166792</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471498</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50524192898881</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848097</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150964</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037132002</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705268</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473157</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750187</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588726</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815398</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6796463695193301</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194294</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150183</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945117</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455867</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894762</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668211</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.770660483716481</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516672</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833256</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178763</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.0891188908294</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507669</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919064</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.29774030202549</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060965</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37545,7 +37545,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,7 +38110,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
